--- a/src/main/resources/config/teamplate_insert_product_list.xlsx
+++ b/src/main/resources/config/teamplate_insert_product_list.xlsx
@@ -110,10 +110,10 @@
     <t>Giay dap xe</t>
   </si>
   <si>
-    <t>Sneaker Nike Air Jordan 1</t>
-  </si>
-  <si>
     <t>Ngon bổ rẻ 1</t>
+  </si>
+  <si>
+    <t>Sneaker Nike Air Jordan ABC 1</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,9 +215,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -505,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +590,7 @@
     </row>
     <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -611,7 +608,7 @@
         <v>200000000</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>500000000</v>
@@ -659,160 +656,160 @@
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="7"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="6"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="R5" s="4"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="6"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="6"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="R7" s="4"/>
       <c r="S7" s="5"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="6"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
     <row r="17" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
     <row r="18" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
       <c r="V24" s="6"/>
     </row>
     <row r="25" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
       <c r="V26" s="6"/>
     </row>
     <row r="27" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="6"/>
     </row>
     <row r="28" spans="18:22" x14ac:dyDescent="0.25">
